--- a/data/09hz.xlsx
+++ b/data/09hz.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="awd" sheetId="2" r:id="rId1"/>
@@ -73,8 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
@@ -120,7 +119,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -137,6 +135,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -429,19 +428,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="str">
+      <c r="A1" s="2" t="str">
         <f>pct!A1:A8</f>
         <v>ay</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -449,10 +448,10 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
         <v>3181.5</v>
       </c>
     </row>
@@ -460,10 +459,10 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
         <v>3641</v>
       </c>
     </row>
@@ -471,10 +470,10 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
         <v>3181.5</v>
       </c>
     </row>
@@ -482,10 +481,10 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
         <v>3823</v>
       </c>
     </row>
@@ -493,10 +492,10 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
         <v>3276.9</v>
       </c>
     </row>
@@ -504,10 +503,10 @@
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
         <v>4014</v>
       </c>
     </row>
@@ -515,10 +514,10 @@
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
         <v>3390</v>
       </c>
     </row>
@@ -526,10 +525,10 @@
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
         <v>4295</v>
       </c>
     </row>
@@ -537,10 +536,10 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
         <v>3495</v>
       </c>
     </row>
@@ -548,10 +547,10 @@
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4">
         <v>4682</v>
       </c>
     </row>
@@ -559,10 +558,10 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4">
         <v>3495</v>
       </c>
     </row>
@@ -570,10 +569,10 @@
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4">
         <v>4682</v>
       </c>
     </row>
@@ -581,10 +580,10 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
         <v>3600</v>
       </c>
     </row>
@@ -592,10 +591,10 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4">
         <v>4776</v>
       </c>
     </row>
@@ -606,7 +605,7 @@
       <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>3720</v>
       </c>
     </row>
@@ -614,10 +613,10 @@
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5">
         <v>4776</v>
       </c>
     </row>
@@ -635,11 +634,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="A1:B1048576"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,17 +646,16 @@
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -665,176 +663,176 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.8737984070310354</v>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8">
+        <v>87.37984070310354</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.83219984305519223</v>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>83.219984305519219</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.8163677130044843</v>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>81.63677130044843</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.78928987194412104</v>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>78.928987194412102</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.74647586501495089</v>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8">
+        <v>74.647586501495084</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.74647586501495089</v>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>74.647586501495084</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.75376884422110557</v>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8">
+        <v>75.376884422110564</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.77889447236180909</v>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8">
+        <v>77.889447236180914</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="8">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -851,7 +849,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0671C684-69F0-4795-A157-3A495F79716B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E2B02FC-42E0-4BC3-A9FC-79BE9ADB5542}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/PowerBIAddIn"/>
   </ds:schemaRefs>

--- a/data/09hz.xlsx
+++ b/data/09hz.xlsx
@@ -73,8 +73,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -125,17 +126,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,7 +639,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +668,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="8">
-        <v>87.37984070310354</v>
+        <v>0.8737984070310354</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -678,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="8">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -689,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="8">
-        <v>83.219984305519219</v>
+        <v>0.83219984305519223</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -700,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="8">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -711,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8">
-        <v>81.63677130044843</v>
+        <v>0.8163677130044843</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -722,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="8">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -733,7 +734,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="8">
-        <v>78.928987194412102</v>
+        <v>0.78928987194412104</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -744,7 +745,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="8">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -755,7 +756,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="8">
-        <v>74.647586501495084</v>
+        <v>0.74647586501495089</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -766,7 +767,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="8">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -777,7 +778,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="8">
-        <v>74.647586501495084</v>
+        <v>0.74647586501495089</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -788,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="8">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -799,7 +800,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="8">
-        <v>75.376884422110564</v>
+        <v>0.75376884422110568</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -810,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="8">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -821,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="8">
-        <v>77.889447236180914</v>
+        <v>0.77889447236180909</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -832,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="8">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -849,7 +850,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E2B02FC-42E0-4BC3-A9FC-79BE9ADB5542}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7777EAEA-80AE-48F6-9EFE-E232492DB531}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/PowerBIAddIn"/>
   </ds:schemaRefs>
